--- a/buddy.xlsx
+++ b/buddy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mani\OneDrive\Desktop\Suggestions Application\buddy_app_backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3F20988-4E8A-43B0-84CA-344B98F4A3F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAB50191-9A0E-4172-BC2F-5C8D3A2A7BB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13096" xr2:uid="{FE7F58E5-962F-4928-89EE-055173C3EDB6}"/>
   </bookViews>
@@ -447,6 +447,72 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>19049</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>11535</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>657225</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8C79158-709C-D794-1B1E-9748709F6A3C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="16544924" y="204787"/>
+          <a:ext cx="1116436" cy="652463"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -748,14 +814,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72976A30-ADA3-456C-8D91-B0CBB7168D49}">
   <dimension ref="A1:AB4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="Z6" sqref="Z6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="2" width="11.59765625" customWidth="1"/>
     <col min="8" max="8" width="11.19921875" customWidth="1"/>
+    <col min="26" max="26" width="15.73046875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.5">
@@ -844,7 +911,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:28" ht="23.65" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:28" ht="52.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="9" t="s">
         <v>28</v>
       </c>
@@ -920,7 +987,6 @@
       <c r="Y2" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="Z2" s="1"/>
       <c r="AA2" s="1"/>
       <c r="AB2" s="1"/>
     </row>
@@ -1050,5 +1116,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>